--- a/resources/EIF0590-20210531.xlsx
+++ b/resources/EIF0590-20210531.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="V2.5" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'V2.5'!$G$7:$G$352</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -6626,7 +6629,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6648,7 +6650,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6656,7 +6657,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -6664,10 +6664,9 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6678,6 +6677,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF003366"/>
         <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -6752,7 +6757,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6801,6 +6806,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6826,7 +6847,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1390320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6857,16 +6878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:CB352"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5:CB5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.15"/>
@@ -6878,7 +6899,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="80.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="41.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="33.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="38.86"/>
@@ -6948,7 +6969,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="81" style="1" width="11.42"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -7002,7 +7023,7 @@
       <c r="AZ1" s="4"/>
       <c r="BA1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -7056,7 +7077,7 @@
       <c r="AZ2" s="4"/>
       <c r="BA2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7642,7 +7663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1</v>
       </c>
@@ -7761,7 +7782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
@@ -7904,7 +7925,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3</v>
       </c>
@@ -8070,7 +8091,7 @@
         <v>44319</v>
       </c>
       <c r="F11" s="11" t="n">
-        <v>0.436805555555555</v>
+        <v>0.436805555555556</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>141</v>
@@ -8136,7 +8157,7 @@
         <v>44319</v>
       </c>
       <c r="AM11" s="11" t="n">
-        <v>0.436805555555555</v>
+        <v>0.436805555555556</v>
       </c>
       <c r="AN11" s="1" t="s">
         <v>104</v>
@@ -8184,7 +8205,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>5</v>
       </c>
@@ -8437,7 +8458,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>7</v>
       </c>
@@ -8553,7 +8574,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>8</v>
       </c>
@@ -8666,7 +8687,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>9</v>
       </c>
@@ -8812,7 +8833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>10</v>
       </c>
@@ -8925,7 +8946,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>11</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>12</v>
       </c>
@@ -9184,117 +9205,117 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+    <row r="20" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1" t="n">
+      <c r="B20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="13" t="n">
         <v>44319</v>
       </c>
-      <c r="F20" s="11" t="n">
+      <c r="F20" s="14" t="n">
         <v>0.636111111111111</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="T20" s="1" t="n">
+      <c r="T20" s="12" t="n">
         <v>358351</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="W20" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="X20" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="Y20" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="Z20" s="1" t="s">
+      <c r="Z20" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AB20" s="1" t="s">
+      <c r="AB20" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AE20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AF20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AI20" s="1" t="n">
+      <c r="AI20" s="12" t="n">
         <v>2500000</v>
       </c>
-      <c r="AJ20" s="3" t="n">
+      <c r="AJ20" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AK20" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AL20" s="2" t="n">
+      <c r="AL20" s="13" t="n">
         <v>44319</v>
       </c>
-      <c r="AM20" s="11" t="n">
+      <c r="AM20" s="14" t="n">
         <v>0.636111111111111</v>
       </c>
-      <c r="AN20" s="1" t="s">
+      <c r="AN20" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AP20" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="AQ20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BJ20" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ20" s="1" t="n">
+      <c r="AQ20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BJ20" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BZ20" s="12" t="n">
         <v>140588842</v>
       </c>
-      <c r="CA20" s="1" t="n">
+      <c r="CA20" s="12" t="n">
         <v>263933</v>
       </c>
-      <c r="CB20" s="1" t="s">
+      <c r="CB20" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>14</v>
       </c>
@@ -9407,7 +9428,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>15</v>
       </c>
@@ -9520,7 +9541,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>16</v>
       </c>
@@ -9633,7 +9654,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>17</v>
       </c>
@@ -9746,7 +9767,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>18</v>
       </c>
@@ -9889,7 +9910,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>19</v>
       </c>
@@ -10404,7 +10425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>23</v>
       </c>
@@ -10520,7 +10541,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>24</v>
       </c>
@@ -10636,7 +10657,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>25</v>
       </c>
@@ -10770,7 +10791,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>26</v>
       </c>
@@ -11026,7 +11047,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>28</v>
       </c>
@@ -11139,7 +11160,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>29</v>
       </c>
@@ -11282,7 +11303,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>30</v>
       </c>
@@ -11398,7 +11419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>31</v>
       </c>
@@ -11514,7 +11535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>32</v>
       </c>
@@ -11630,7 +11651,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>33</v>
       </c>
@@ -11743,7 +11764,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>34</v>
       </c>
@@ -11760,7 +11781,7 @@
         <v>44320</v>
       </c>
       <c r="F41" s="11" t="n">
-        <v>0.674305555555556</v>
+        <v>0.674305555555555</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>85</v>
@@ -11832,7 +11853,7 @@
         <v>44320</v>
       </c>
       <c r="AM41" s="11" t="n">
-        <v>0.674305555555556</v>
+        <v>0.674305555555555</v>
       </c>
       <c r="AN41" s="1" t="s">
         <v>104</v>
@@ -11889,7 +11910,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>35</v>
       </c>
@@ -12002,7 +12023,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>36</v>
       </c>
@@ -12115,7 +12136,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>37</v>
       </c>
@@ -12228,7 +12249,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>38</v>
       </c>
@@ -12347,7 +12368,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>39</v>
       </c>
@@ -12460,7 +12481,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>40</v>
       </c>
@@ -12573,7 +12594,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>41</v>
       </c>
@@ -12692,7 +12713,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>42</v>
       </c>
@@ -12921,7 +12942,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>44</v>
       </c>
@@ -13034,7 +13055,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>45</v>
       </c>
@@ -13177,7 +13198,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>46</v>
       </c>
@@ -13290,7 +13311,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>47</v>
       </c>
@@ -13427,7 +13448,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>48</v>
       </c>
@@ -13570,7 +13591,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>49</v>
       </c>
@@ -13683,7 +13704,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>50</v>
       </c>
@@ -13796,7 +13817,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>51</v>
       </c>
@@ -13939,7 +13960,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>52</v>
       </c>
@@ -14052,7 +14073,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>53</v>
       </c>
@@ -14168,7 +14189,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>54</v>
       </c>
@@ -14290,7 +14311,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>55</v>
       </c>
@@ -14406,7 +14427,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>56</v>
       </c>
@@ -14519,7 +14540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>57</v>
       </c>
@@ -14635,7 +14656,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>58</v>
       </c>
@@ -14745,7 +14766,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>59</v>
       </c>
@@ -14858,7 +14879,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>60</v>
       </c>
@@ -15248,7 +15269,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>63</v>
       </c>
@@ -16150,7 +16171,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>70</v>
       </c>
@@ -16266,7 +16287,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>71</v>
       </c>
@@ -16283,7 +16304,7 @@
         <v>44322</v>
       </c>
       <c r="F78" s="11" t="n">
-        <v>0.480555555555556</v>
+        <v>0.480555555555555</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>85</v>
@@ -16352,7 +16373,7 @@
         <v>44322</v>
       </c>
       <c r="AM78" s="11" t="n">
-        <v>0.480555555555556</v>
+        <v>0.480555555555555</v>
       </c>
       <c r="AN78" s="1" t="s">
         <v>104</v>
@@ -16379,7 +16400,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>72</v>
       </c>
@@ -16602,7 +16623,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>74</v>
       </c>
@@ -16715,7 +16736,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>75</v>
       </c>
@@ -16828,7 +16849,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>76</v>
       </c>
@@ -16974,7 +16995,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>77</v>
       </c>
@@ -17090,7 +17111,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>78</v>
       </c>
@@ -17203,7 +17224,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>79</v>
       </c>
@@ -17319,7 +17340,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>80</v>
       </c>
@@ -17545,7 +17566,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>82</v>
       </c>
@@ -17694,7 +17715,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>83</v>
       </c>
@@ -17831,7 +17852,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>84</v>
       </c>
@@ -17947,7 +17968,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>85</v>
       </c>
@@ -18310,7 +18331,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>88</v>
       </c>
@@ -18453,7 +18474,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>89</v>
       </c>
@@ -18569,7 +18590,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>90</v>
       </c>
@@ -18679,7 +18700,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>91</v>
       </c>
@@ -18822,7 +18843,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>92</v>
       </c>
@@ -18935,7 +18956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>93</v>
       </c>
@@ -19182,7 +19203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>95</v>
       </c>
@@ -19295,7 +19316,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>96</v>
       </c>
@@ -19408,7 +19429,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>97</v>
       </c>
@@ -19634,7 +19655,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>99</v>
       </c>
@@ -19747,7 +19768,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>100</v>
       </c>
@@ -19860,7 +19881,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>101</v>
       </c>
@@ -19970,7 +19991,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>102</v>
       </c>
@@ -20083,7 +20104,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>103</v>
       </c>
@@ -20229,7 +20250,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>104</v>
       </c>
@@ -20372,7 +20393,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>105</v>
       </c>
@@ -20485,7 +20506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>106</v>
       </c>
@@ -20601,7 +20622,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>107</v>
       </c>
@@ -20714,7 +20735,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>108</v>
       </c>
@@ -20827,7 +20848,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>109</v>
       </c>
@@ -20949,7 +20970,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>110</v>
       </c>
@@ -21059,7 +21080,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>111</v>
       </c>
@@ -21172,7 +21193,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>112</v>
       </c>
@@ -21285,7 +21306,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>113</v>
       </c>
@@ -21428,7 +21449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>114</v>
       </c>
@@ -21681,7 +21702,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>116</v>
       </c>
@@ -21910,7 +21931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>118</v>
       </c>
@@ -22053,7 +22074,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>119</v>
       </c>
@@ -22297,7 +22318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>121</v>
       </c>
@@ -22541,7 +22562,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>123</v>
       </c>
@@ -23449,7 +23470,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>130</v>
       </c>
@@ -23565,7 +23586,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>131</v>
       </c>
@@ -23681,7 +23702,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>132</v>
       </c>
@@ -23794,7 +23815,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>133</v>
       </c>
@@ -23937,7 +23958,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>134</v>
       </c>
@@ -24050,7 +24071,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>135</v>
       </c>
@@ -24166,7 +24187,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>136</v>
       </c>
@@ -24279,7 +24300,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>137</v>
       </c>
@@ -24413,7 +24434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>138</v>
       </c>
@@ -24639,7 +24660,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>140</v>
       </c>
@@ -25017,7 +25038,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>143</v>
       </c>
@@ -25261,7 +25282,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>145</v>
       </c>
@@ -25725,7 +25746,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>149</v>
       </c>
@@ -25838,7 +25859,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>150</v>
       </c>
@@ -25981,7 +26002,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>151</v>
       </c>
@@ -26234,7 +26255,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>153</v>
       </c>
@@ -26460,7 +26481,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>155</v>
       </c>
@@ -26576,7 +26597,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>156</v>
       </c>
@@ -26689,7 +26710,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>157</v>
       </c>
@@ -26811,7 +26832,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>158</v>
       </c>
@@ -26927,7 +26948,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>159</v>
       </c>
@@ -27049,7 +27070,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>160</v>
       </c>
@@ -27186,7 +27207,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>161</v>
       </c>
@@ -27302,7 +27323,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>162</v>
       </c>
@@ -27418,7 +27439,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>163</v>
       </c>
@@ -27561,7 +27582,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>164</v>
       </c>
@@ -27680,7 +27701,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>165</v>
       </c>
@@ -27796,7 +27817,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>166</v>
       </c>
@@ -27909,7 +27930,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>167</v>
       </c>
@@ -28564,7 +28585,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>172</v>
       </c>
@@ -28817,7 +28838,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>174</v>
       </c>
@@ -28939,7 +28960,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>175</v>
       </c>
@@ -29284,7 +29305,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>178</v>
       </c>
@@ -29397,7 +29418,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>179</v>
       </c>
@@ -29513,7 +29534,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>180</v>
       </c>
@@ -29626,7 +29647,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>181</v>
       </c>
@@ -29739,7 +29760,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>182</v>
       </c>
@@ -29882,7 +29903,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>183</v>
       </c>
@@ -30025,7 +30046,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>184</v>
       </c>
@@ -30141,7 +30162,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>185</v>
       </c>
@@ -30287,7 +30308,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>186</v>
       </c>
@@ -30400,7 +30421,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>187</v>
       </c>
@@ -30513,7 +30534,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>188</v>
       </c>
@@ -30626,7 +30647,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>189</v>
       </c>
@@ -30742,7 +30763,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>190</v>
       </c>
@@ -30968,7 +30989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>192</v>
       </c>
@@ -31111,7 +31132,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>193</v>
       </c>
@@ -31224,7 +31245,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>194</v>
       </c>
@@ -31337,7 +31358,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>195</v>
       </c>
@@ -31453,7 +31474,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>196</v>
       </c>
@@ -31569,7 +31590,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>197</v>
       </c>
@@ -31685,7 +31706,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>198</v>
       </c>
@@ -31801,7 +31822,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>199</v>
       </c>
@@ -31944,7 +31965,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>200</v>
       </c>
@@ -32057,7 +32078,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>201</v>
       </c>
@@ -32280,7 +32301,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>203</v>
       </c>
@@ -32393,7 +32414,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>204</v>
       </c>
@@ -32509,7 +32530,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>205</v>
       </c>
@@ -32622,7 +32643,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>206</v>
       </c>
@@ -33128,7 +33149,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>210</v>
       </c>
@@ -33244,7 +33265,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>211</v>
       </c>
@@ -33357,7 +33378,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>212</v>
       </c>
@@ -33470,7 +33491,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>213</v>
       </c>
@@ -33976,7 +33997,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>217</v>
       </c>
@@ -34089,7 +34110,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>218</v>
       </c>
@@ -34351,7 +34372,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>220</v>
       </c>
@@ -34497,7 +34518,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>221</v>
       </c>
@@ -34607,7 +34628,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>222</v>
       </c>
@@ -34723,7 +34744,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>223</v>
       </c>
@@ -34839,7 +34860,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>224</v>
       </c>
@@ -34952,7 +34973,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>225</v>
       </c>
@@ -35095,7 +35116,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>226</v>
       </c>
@@ -35208,7 +35229,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>227</v>
       </c>
@@ -35321,7 +35342,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>228</v>
       </c>
@@ -35434,7 +35455,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>229</v>
       </c>
@@ -35550,7 +35571,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>230</v>
       </c>
@@ -35666,7 +35687,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>231</v>
       </c>
@@ -35779,7 +35800,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>232</v>
       </c>
@@ -36032,7 +36053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>234</v>
       </c>
@@ -36148,7 +36169,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>235</v>
       </c>
@@ -36294,7 +36315,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>236</v>
       </c>
@@ -36517,7 +36538,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>238</v>
       </c>
@@ -36636,7 +36657,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>239</v>
       </c>
@@ -36749,7 +36770,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>240</v>
       </c>
@@ -36865,7 +36886,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>241</v>
       </c>
@@ -37356,7 +37377,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>245</v>
       </c>
@@ -37764,7 +37785,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>248</v>
       </c>
@@ -37877,7 +37898,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>249</v>
       </c>
@@ -37993,7 +38014,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>250</v>
       </c>
@@ -38109,7 +38130,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>251</v>
       </c>
@@ -38225,7 +38246,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>252</v>
       </c>
@@ -38338,7 +38359,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>253</v>
       </c>
@@ -38451,7 +38472,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>254</v>
       </c>
@@ -38573,7 +38594,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>255</v>
       </c>
@@ -38689,7 +38710,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>256</v>
       </c>
@@ -39076,7 +39097,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>259</v>
       </c>
@@ -39192,7 +39213,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>260</v>
       </c>
@@ -39209,7 +39230,7 @@
         <v>44340</v>
       </c>
       <c r="F267" s="11" t="n">
-        <v>0.374305555555555</v>
+        <v>0.374305555555556</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>85</v>
@@ -39278,7 +39299,7 @@
         <v>44340</v>
       </c>
       <c r="AM267" s="11" t="n">
-        <v>0.374305555555555</v>
+        <v>0.374305555555556</v>
       </c>
       <c r="AN267" s="1" t="s">
         <v>104</v>
@@ -39305,7 +39326,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>261</v>
       </c>
@@ -39674,7 +39695,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>264</v>
       </c>
@@ -39811,7 +39832,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>265</v>
       </c>
@@ -39924,7 +39945,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>266</v>
       </c>
@@ -40037,7 +40058,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>267</v>
       </c>
@@ -40153,7 +40174,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>268</v>
       </c>
@@ -40266,7 +40287,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>269</v>
       </c>
@@ -40409,7 +40430,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>270</v>
       </c>
@@ -40531,7 +40552,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>271</v>
       </c>
@@ -40647,7 +40668,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>272</v>
       </c>
@@ -40763,7 +40784,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>273</v>
       </c>
@@ -40879,7 +40900,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>274</v>
       </c>
@@ -40995,7 +41016,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>275</v>
       </c>
@@ -41105,7 +41126,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>276</v>
       </c>
@@ -41593,7 +41614,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>280</v>
       </c>
@@ -42075,7 +42096,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>284</v>
       </c>
@@ -42188,7 +42209,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>285</v>
       </c>
@@ -42307,7 +42328,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>286</v>
       </c>
@@ -42420,7 +42441,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>287</v>
       </c>
@@ -42533,7 +42554,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>288</v>
       </c>
@@ -42646,7 +42667,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>289</v>
       </c>
@@ -42756,7 +42777,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>290</v>
       </c>
@@ -42899,7 +42920,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>291</v>
       </c>
@@ -43015,7 +43036,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>292</v>
       </c>
@@ -43372,7 +43393,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>295</v>
       </c>
@@ -43515,7 +43536,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>296</v>
       </c>
@@ -43631,7 +43652,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>297</v>
       </c>
@@ -43750,7 +43771,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>298</v>
       </c>
@@ -43866,7 +43887,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>299</v>
       </c>
@@ -43979,7 +44000,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>300</v>
       </c>
@@ -44092,7 +44113,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>301</v>
       </c>
@@ -44205,7 +44226,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>302</v>
       </c>
@@ -44321,7 +44342,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>303</v>
       </c>
@@ -44467,7 +44488,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>304</v>
       </c>
@@ -44580,7 +44601,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>305</v>
       </c>
@@ -44693,7 +44714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>306</v>
       </c>
@@ -44809,7 +44830,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>307</v>
       </c>
@@ -44922,7 +44943,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>308</v>
       </c>
@@ -45276,7 +45297,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>311</v>
       </c>
@@ -45389,7 +45410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>312</v>
       </c>
@@ -45499,7 +45520,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>313</v>
       </c>
@@ -45612,7 +45633,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>314</v>
       </c>
@@ -46148,7 +46169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>318</v>
       </c>
@@ -46404,7 +46425,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>320</v>
       </c>
@@ -46520,7 +46541,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>321</v>
       </c>
@@ -46636,7 +46657,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>322</v>
       </c>
@@ -46883,7 +46904,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>324</v>
       </c>
@@ -46996,7 +47017,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>325</v>
       </c>
@@ -47112,7 +47133,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>326</v>
       </c>
@@ -47225,7 +47246,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>327</v>
       </c>
@@ -47355,7 +47376,7 @@
         <v>44344</v>
       </c>
       <c r="F335" s="11" t="n">
-        <v>0.743055555555555</v>
+        <v>0.743055555555556</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>141</v>
@@ -47421,7 +47442,7 @@
         <v>44344</v>
       </c>
       <c r="AM335" s="11" t="n">
-        <v>0.743055555555555</v>
+        <v>0.743055555555556</v>
       </c>
       <c r="AN335" s="1" t="s">
         <v>104</v>
@@ -47448,7 +47469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>329</v>
       </c>
@@ -47561,7 +47582,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <v>330</v>
       </c>
@@ -47677,7 +47698,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>331</v>
       </c>
@@ -47793,7 +47814,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>332</v>
       </c>
@@ -47906,7 +47927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>333</v>
       </c>
@@ -48040,7 +48061,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>334</v>
       </c>
@@ -48174,7 +48195,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>335</v>
       </c>
@@ -48287,7 +48308,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>336</v>
       </c>
@@ -48403,7 +48424,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>337</v>
       </c>
@@ -48680,7 +48701,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>339</v>
       </c>
@@ -48793,7 +48814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>340</v>
       </c>
@@ -48936,7 +48957,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>341</v>
       </c>
@@ -49049,7 +49070,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>342</v>
       </c>
@@ -49308,7 +49329,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>344</v>
       </c>
@@ -49421,7 +49442,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>345</v>
       </c>
@@ -49562,6 +49583,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G7:G352">
+    <filterColumn colId="0">
+      <customFilters and="true">
+        <customFilter operator="equal" val="JURIDICA"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:F6"/>

--- a/resources/EIF0590-20210531.xlsx
+++ b/resources/EIF0590-20210531.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="2920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="2919">
   <si>
     <t xml:space="preserve">VERSION PLANTILLA:</t>
   </si>
@@ -7814,9 +7814,6 @@
   </si>
   <si>
     <t xml:space="preserve">809    - 528-8112  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGROCOMERCIAL MANUEL</t>
   </si>
   <si>
     <t xml:space="preserve">GARCIA FAÑA</t>
@@ -8996,9 +8993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1471680</xdr:colOff>
+      <xdr:colOff>1471320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9012,7 +9009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20160" y="37800"/>
-          <a:ext cx="2538000" cy="666000"/>
+          <a:ext cx="2537640" cy="665640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9034,11 +9031,11 @@
   </sheetPr>
   <dimension ref="A1:IW352"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K213" activeCellId="0" sqref="K213"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CK297" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L310" activeCellId="0" sqref="L310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.1"/>
@@ -9063,7 +9060,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="18.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="18.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="15.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="62.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="62.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="25.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="16.26"/>
@@ -55400,10 +55397,10 @@
         <v>99</v>
       </c>
       <c r="K310" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L310" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="L310" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>102</v>
@@ -55412,7 +55409,7 @@
         <v>103</v>
       </c>
       <c r="P310" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="R310" s="1" t="s">
         <v>105</v>
@@ -55430,16 +55427,16 @@
         <v>1944</v>
       </c>
       <c r="Y310" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="Z310" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="Z310" s="1" t="s">
+      <c r="AB310" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="AB310" s="1" t="s">
+      <c r="AC310" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="AC310" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="AE310" s="1" t="s">
         <v>112</v>
@@ -55469,7 +55466,7 @@
         <v>115</v>
       </c>
       <c r="AP310" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="AQ310" s="1" t="s">
         <v>97</v>
@@ -55544,7 +55541,7 @@
         <v>102</v>
       </c>
       <c r="CL310" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55573,10 +55570,10 @@
         <v>152</v>
       </c>
       <c r="K311" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="L311" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="L311" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>102</v>
@@ -55585,7 +55582,7 @@
         <v>103</v>
       </c>
       <c r="P311" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="R311" s="1" t="s">
         <v>105</v>
@@ -55603,13 +55600,13 @@
         <v>108</v>
       </c>
       <c r="Y311" s="1" t="s">
+        <v>2608</v>
+      </c>
+      <c r="Z311" s="1" t="s">
         <v>2609</v>
       </c>
-      <c r="Z311" s="1" t="s">
+      <c r="AC311" s="1" t="s">
         <v>2610</v>
-      </c>
-      <c r="AC311" s="1" t="s">
-        <v>2611</v>
       </c>
       <c r="AE311" s="1" t="s">
         <v>112</v>
@@ -55660,10 +55657,10 @@
         <v>117</v>
       </c>
       <c r="CC311" s="1" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="CD311" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="CE311" s="1" t="s">
         <v>152</v>
@@ -55672,10 +55669,10 @@
         <v>30740</v>
       </c>
       <c r="CG311" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="CH311" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="CI311" s="1" t="s">
         <v>108</v>
@@ -55704,7 +55701,7 @@
         <v>44343</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>96</v>
@@ -55773,7 +55770,7 @@
         <v>44343</v>
       </c>
       <c r="AM312" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="AN312" s="1" t="s">
         <v>115</v>
@@ -55844,7 +55841,7 @@
         <v>44344</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>96</v>
@@ -55856,7 +55853,7 @@
         <v>2572</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>102</v>
@@ -55865,7 +55862,7 @@
         <v>103</v>
       </c>
       <c r="P313" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="R313" s="1" t="s">
         <v>105</v>
@@ -55883,16 +55880,16 @@
         <v>2069</v>
       </c>
       <c r="Y313" s="1" t="s">
+        <v>2617</v>
+      </c>
+      <c r="Z313" s="1" t="s">
         <v>2618</v>
       </c>
-      <c r="Z313" s="1" t="s">
+      <c r="AB313" s="1" t="s">
         <v>2619</v>
       </c>
-      <c r="AB313" s="1" t="s">
+      <c r="AC313" s="1" t="s">
         <v>2620</v>
-      </c>
-      <c r="AC313" s="1" t="s">
-        <v>2621</v>
       </c>
       <c r="AE313" s="1" t="s">
         <v>130</v>
@@ -55916,13 +55913,13 @@
         <v>44344</v>
       </c>
       <c r="AM313" s="1" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="AN313" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP313" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="AQ313" s="1" t="s">
         <v>97</v>
@@ -55955,10 +55952,10 @@
         <v>29559</v>
       </c>
       <c r="CG313" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="CH313" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="CI313" s="1" t="s">
         <v>2069</v>
@@ -55967,7 +55964,7 @@
         <v>102</v>
       </c>
       <c r="CL313" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55987,7 +55984,7 @@
         <v>44344</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>96</v>
@@ -55996,10 +55993,10 @@
         <v>99</v>
       </c>
       <c r="K314" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="L314" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="L314" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>102</v>
@@ -56008,7 +56005,7 @@
         <v>103</v>
       </c>
       <c r="P314" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="R314" s="1" t="s">
         <v>105</v>
@@ -56026,13 +56023,13 @@
         <v>408</v>
       </c>
       <c r="Y314" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="Z314" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="Z314" s="1" t="s">
+      <c r="AC314" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="AC314" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="AE314" s="1" t="s">
         <v>130</v>
@@ -56056,13 +56053,13 @@
         <v>44344</v>
       </c>
       <c r="AM314" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="AN314" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP314" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="AQ314" s="1" t="s">
         <v>97</v>
@@ -56095,10 +56092,10 @@
         <v>27027</v>
       </c>
       <c r="CG314" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="CH314" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="CI314" s="1" t="s">
         <v>408</v>
@@ -56107,7 +56104,7 @@
         <v>102</v>
       </c>
       <c r="CL314" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56136,10 +56133,10 @@
         <v>99</v>
       </c>
       <c r="K315" s="1" t="s">
+        <v>2632</v>
+      </c>
+      <c r="L315" s="1" t="s">
         <v>2633</v>
-      </c>
-      <c r="L315" s="1" t="s">
-        <v>2634</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>102</v>
@@ -56148,7 +56145,7 @@
         <v>103</v>
       </c>
       <c r="P315" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="R315" s="1" t="s">
         <v>105</v>
@@ -56166,13 +56163,13 @@
         <v>2495</v>
       </c>
       <c r="Y315" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="Z315" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="Z315" s="1" t="s">
+      <c r="AC315" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="AC315" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="AE315" s="1" t="s">
         <v>130</v>
@@ -56202,7 +56199,7 @@
         <v>115</v>
       </c>
       <c r="AP315" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="AQ315" s="1" t="s">
         <v>97</v>
@@ -56223,7 +56220,7 @@
         <v>696</v>
       </c>
       <c r="CC315" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="CD315" s="1" t="s">
         <v>335</v>
@@ -56235,10 +56232,10 @@
         <v>29542</v>
       </c>
       <c r="CG315" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="CH315" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="CI315" s="1" t="s">
         <v>2495</v>
@@ -56247,7 +56244,7 @@
         <v>102</v>
       </c>
       <c r="CL315" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56273,7 +56270,7 @@
         <v>162</v>
       </c>
       <c r="K316" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>2199</v>
@@ -56285,7 +56282,7 @@
         <v>165</v>
       </c>
       <c r="P316" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="R316" s="1" t="s">
         <v>105</v>
@@ -56306,10 +56303,10 @@
         <v>986</v>
       </c>
       <c r="Z316" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="AB316" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="AB316" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="AE316" s="1" t="s">
         <v>112</v>
@@ -56339,7 +56336,7 @@
         <v>115</v>
       </c>
       <c r="AP316" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
       <c r="AQ316" s="1" t="s">
         <v>97</v>
@@ -56360,10 +56357,10 @@
         <v>243</v>
       </c>
       <c r="CC316" s="1" t="s">
+        <v>2645</v>
+      </c>
+      <c r="CD316" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="CD316" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="CE316" s="1" t="s">
         <v>99</v>
@@ -56372,22 +56369,22 @@
         <v>31777</v>
       </c>
       <c r="CG316" s="1" t="s">
+        <v>2647</v>
+      </c>
+      <c r="CH316" s="1" t="s">
         <v>2648</v>
       </c>
-      <c r="CH316" s="1" t="s">
+      <c r="CI316" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="CI316" s="1" t="s">
+      <c r="CJ316" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="CK316" s="1" t="s">
         <v>2650</v>
       </c>
-      <c r="CJ316" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CK316" s="1" t="s">
-        <v>2651</v>
-      </c>
       <c r="CL316" s="1" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56407,7 +56404,7 @@
         <v>44344</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>162</v>
@@ -56473,13 +56470,13 @@
         <v>44344</v>
       </c>
       <c r="AM317" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="AN317" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP317" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="AQ317" s="1" t="s">
         <v>97</v>
@@ -56548,7 +56545,7 @@
         <v>184</v>
       </c>
       <c r="CL317" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56577,10 +56574,10 @@
         <v>99</v>
       </c>
       <c r="K318" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L318" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="L318" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="M318" s="1" t="s">
         <v>102</v>
@@ -56589,7 +56586,7 @@
         <v>103</v>
       </c>
       <c r="P318" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="R318" s="1" t="s">
         <v>105</v>
@@ -56607,13 +56604,13 @@
         <v>126</v>
       </c>
       <c r="Y318" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="Z318" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="Z318" s="1" t="s">
+      <c r="AC318" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="AC318" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="AE318" s="1" t="s">
         <v>112</v>
@@ -56643,7 +56640,7 @@
         <v>115</v>
       </c>
       <c r="AP318" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="AQ318" s="1" t="s">
         <v>97</v>
@@ -56664,10 +56661,10 @@
         <v>136</v>
       </c>
       <c r="CC318" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="CD318" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="CE318" s="1" t="s">
         <v>99</v>
@@ -56676,10 +56673,10 @@
         <v>30326</v>
       </c>
       <c r="CG318" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="CH318" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="CI318" s="1" t="s">
         <v>126</v>
@@ -56688,7 +56685,7 @@
         <v>102</v>
       </c>
       <c r="CL318" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56708,7 +56705,7 @@
         <v>44344</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="G319" s="1" t="s">
         <v>96</v>
@@ -56774,13 +56771,13 @@
         <v>44344</v>
       </c>
       <c r="AM319" s="1" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
       <c r="AN319" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP319" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="AQ319" s="1" t="s">
         <v>97</v>
@@ -56825,7 +56822,7 @@
         <v>102</v>
       </c>
       <c r="CL319" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56845,7 +56842,7 @@
         <v>44344</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="G320" s="1" t="s">
         <v>96</v>
@@ -56854,10 +56851,10 @@
         <v>99</v>
       </c>
       <c r="K320" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L320" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="L320" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="M320" s="1" t="s">
         <v>102</v>
@@ -56866,7 +56863,7 @@
         <v>103</v>
       </c>
       <c r="P320" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="R320" s="1" t="s">
         <v>105</v>
@@ -56884,13 +56881,13 @@
         <v>126</v>
       </c>
       <c r="Y320" s="1" t="s">
+        <v>2656</v>
+      </c>
+      <c r="Z320" s="1" t="s">
         <v>2657</v>
       </c>
-      <c r="Z320" s="1" t="s">
+      <c r="AC320" s="1" t="s">
         <v>2658</v>
-      </c>
-      <c r="AC320" s="1" t="s">
-        <v>2659</v>
       </c>
       <c r="AE320" s="1" t="s">
         <v>130</v>
@@ -56914,13 +56911,13 @@
         <v>44344</v>
       </c>
       <c r="AM320" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="AN320" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP320" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="AQ320" s="1" t="s">
         <v>97</v>
@@ -56941,10 +56938,10 @@
         <v>136</v>
       </c>
       <c r="CC320" s="1" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="CD320" s="1" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="CE320" s="1" t="s">
         <v>99</v>
@@ -56953,10 +56950,10 @@
         <v>30326</v>
       </c>
       <c r="CG320" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="CH320" s="1" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="CI320" s="1" t="s">
         <v>126</v>
@@ -56965,7 +56962,7 @@
         <v>102</v>
       </c>
       <c r="CL320" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -56985,7 +56982,7 @@
         <v>44344</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="G321" s="1" t="s">
         <v>96</v>
@@ -56994,10 +56991,10 @@
         <v>99</v>
       </c>
       <c r="K321" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="L321" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="L321" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="M321" s="1" t="s">
         <v>102</v>
@@ -57006,7 +57003,7 @@
         <v>103</v>
       </c>
       <c r="P321" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="R321" s="1" t="s">
         <v>105</v>
@@ -57024,16 +57021,16 @@
         <v>224</v>
       </c>
       <c r="Y321" s="1" t="s">
+        <v>2670</v>
+      </c>
+      <c r="Z321" s="1" t="s">
         <v>2671</v>
       </c>
-      <c r="Z321" s="1" t="s">
+      <c r="AA321" s="1" t="s">
         <v>2672</v>
       </c>
-      <c r="AA321" s="1" t="s">
+      <c r="AC321" s="1" t="s">
         <v>2673</v>
-      </c>
-      <c r="AC321" s="1" t="s">
-        <v>2674</v>
       </c>
       <c r="AE321" s="1" t="s">
         <v>130</v>
@@ -57057,13 +57054,13 @@
         <v>44344</v>
       </c>
       <c r="AM321" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="AN321" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP321" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="AQ321" s="1" t="s">
         <v>97</v>
@@ -57096,10 +57093,10 @@
         <v>25974</v>
       </c>
       <c r="CG321" s="1" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="CH321" s="1" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
       <c r="CI321" s="1" t="s">
         <v>224</v>
@@ -57108,7 +57105,7 @@
         <v>102</v>
       </c>
       <c r="CL321" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57200,7 +57197,7 @@
         <v>115</v>
       </c>
       <c r="AP322" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
       <c r="AQ322" s="1" t="s">
         <v>97</v>
@@ -57212,10 +57209,10 @@
         <v>99</v>
       </c>
       <c r="AY322" s="1" t="s">
+        <v>2677</v>
+      </c>
+      <c r="AZ322" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="AZ322" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="BA322" s="1" t="s">
         <v>102</v>
@@ -57224,7 +57221,7 @@
         <v>103</v>
       </c>
       <c r="BD322" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BF322" s="1" t="s">
         <v>1327</v>
@@ -57233,10 +57230,10 @@
         <v>1420</v>
       </c>
       <c r="BH322" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="BI322" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="BI322" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="BJ322" s="1" t="s">
         <v>97</v>
@@ -57251,10 +57248,10 @@
         <v>1330</v>
       </c>
       <c r="CC322" s="1" t="s">
+        <v>2682</v>
+      </c>
+      <c r="CD322" s="1" t="s">
         <v>2683</v>
-      </c>
-      <c r="CD322" s="1" t="s">
-        <v>2684</v>
       </c>
       <c r="CE322" s="1" t="s">
         <v>99</v>
@@ -57263,10 +57260,10 @@
         <v>35342</v>
       </c>
       <c r="CG322" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="CH322" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="CI322" s="1" t="s">
         <v>1420</v>
@@ -57275,7 +57272,7 @@
         <v>102</v>
       </c>
       <c r="CL322" s="1" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57367,7 +57364,7 @@
         <v>115</v>
       </c>
       <c r="AP323" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="AQ323" s="1" t="s">
         <v>97</v>
@@ -57379,10 +57376,10 @@
         <v>99</v>
       </c>
       <c r="AY323" s="1" t="s">
+        <v>2686</v>
+      </c>
+      <c r="AZ323" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="AZ323" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="BA323" s="1" t="s">
         <v>102</v>
@@ -57391,7 +57388,7 @@
         <v>103</v>
       </c>
       <c r="BD323" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="BF323" s="1" t="s">
         <v>168</v>
@@ -57400,10 +57397,10 @@
         <v>168</v>
       </c>
       <c r="BH323" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="BI323" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="BI323" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="BJ323" s="1" t="s">
         <v>97</v>
@@ -57418,10 +57415,10 @@
         <v>178</v>
       </c>
       <c r="CC323" s="1" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
       <c r="CD323" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="CE323" s="1" t="s">
         <v>99</v>
@@ -57430,10 +57427,10 @@
         <v>27297</v>
       </c>
       <c r="CG323" s="1" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="CH323" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="CI323" s="1" t="s">
         <v>168</v>
@@ -57442,7 +57439,7 @@
         <v>102</v>
       </c>
       <c r="CL323" s="1" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57549,7 +57546,7 @@
         <v>248</v>
       </c>
       <c r="AZ324" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BA324" s="1" t="s">
         <v>102</v>
@@ -57558,19 +57555,19 @@
         <v>103</v>
       </c>
       <c r="BD324" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BF324" s="1" t="s">
         <v>107</v>
       </c>
       <c r="BG324" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BH324" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BI324" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BJ324" s="1" t="s">
         <v>97</v>
@@ -57597,13 +57594,13 @@
         <v>25248</v>
       </c>
       <c r="CG324" s="1" t="s">
+        <v>2694</v>
+      </c>
+      <c r="CH324" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="CI324" s="1" t="s">
         <v>2695</v>
-      </c>
-      <c r="CH324" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="CI324" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CJ324" s="1" t="s">
         <v>102</v>
@@ -57629,7 +57626,7 @@
         <v>44344</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="G325" s="1" t="s">
         <v>96</v>
@@ -57638,10 +57635,10 @@
         <v>99</v>
       </c>
       <c r="K325" s="1" t="s">
+        <v>2699</v>
+      </c>
+      <c r="L325" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="L325" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>102</v>
@@ -57650,7 +57647,7 @@
         <v>103</v>
       </c>
       <c r="P325" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="R325" s="1" t="s">
         <v>105</v>
@@ -57671,13 +57668,13 @@
         <v>2465</v>
       </c>
       <c r="Z325" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="AB325" s="1" t="s">
         <v>2703</v>
       </c>
-      <c r="AB325" s="1" t="s">
+      <c r="AC325" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="AC325" s="1" t="s">
-        <v>2705</v>
       </c>
       <c r="AE325" s="1" t="s">
         <v>130</v>
@@ -57701,13 +57698,13 @@
         <v>44344</v>
       </c>
       <c r="AM325" s="1" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="AN325" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP325" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="AQ325" s="1" t="s">
         <v>97</v>
@@ -57740,10 +57737,10 @@
         <v>24332</v>
       </c>
       <c r="CG325" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="CH325" s="1" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="CI325" s="1" t="s">
         <v>915</v>
@@ -57752,7 +57749,7 @@
         <v>102</v>
       </c>
       <c r="CL325" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57772,13 +57769,13 @@
         <v>44344</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K326" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="L326" s="1" t="s">
         <v>2441</v>
@@ -57790,7 +57787,7 @@
         <v>165</v>
       </c>
       <c r="P326" s="1" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="R326" s="1" t="s">
         <v>105</v>
@@ -57805,16 +57802,16 @@
         <v>443</v>
       </c>
       <c r="X326" s="1" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="Y326" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Z326" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="AC326" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="AC326" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="AE326" s="1" t="s">
         <v>112</v>
@@ -57838,13 +57835,13 @@
         <v>44344</v>
       </c>
       <c r="AM326" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="AN326" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP326" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="AQ326" s="1" t="s">
         <v>97</v>
@@ -57859,7 +57856,7 @@
         <v>515</v>
       </c>
       <c r="AZ326" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BA326" s="1" t="s">
         <v>102</v>
@@ -57868,19 +57865,19 @@
         <v>103</v>
       </c>
       <c r="BD326" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BF326" s="1" t="s">
         <v>259</v>
       </c>
       <c r="BG326" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="BH326" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="BH326" s="1" t="s">
+      <c r="BI326" s="1" t="s">
         <v>2718</v>
-      </c>
-      <c r="BI326" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="BJ326" s="1" t="s">
         <v>97</v>
@@ -57907,19 +57904,19 @@
         <v>23919</v>
       </c>
       <c r="CG326" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="CH326" s="1" t="s">
+        <v>2719</v>
+      </c>
+      <c r="CI326" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="CH326" s="1" t="s">
-        <v>2720</v>
-      </c>
-      <c r="CI326" s="1" t="s">
-        <v>2717</v>
-      </c>
       <c r="CJ326" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL326" s="1" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -57939,7 +57936,7 @@
         <v>44344</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="G327" s="1" t="s">
         <v>96</v>
@@ -57951,7 +57948,7 @@
         <v>2096</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>102</v>
@@ -57960,7 +57957,7 @@
         <v>103</v>
       </c>
       <c r="P327" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="R327" s="1" t="s">
         <v>105</v>
@@ -57978,16 +57975,16 @@
         <v>312</v>
       </c>
       <c r="Y327" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="Z327" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="Z327" s="1" t="s">
+      <c r="AB327" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="AB327" s="1" t="s">
+      <c r="AC327" s="1" t="s">
         <v>2726</v>
-      </c>
-      <c r="AC327" s="1" t="s">
-        <v>2727</v>
       </c>
       <c r="AE327" s="1" t="s">
         <v>130</v>
@@ -58011,13 +58008,13 @@
         <v>44344</v>
       </c>
       <c r="AM327" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="AN327" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP327" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="AQ327" s="1" t="s">
         <v>97</v>
@@ -58041,7 +58038,7 @@
         <v>274</v>
       </c>
       <c r="CD327" s="1" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="CE327" s="1" t="s">
         <v>99</v>
@@ -58050,10 +58047,10 @@
         <v>23262</v>
       </c>
       <c r="CG327" s="1" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="CH327" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="CI327" s="1" t="s">
         <v>312</v>
@@ -58062,7 +58059,7 @@
         <v>102</v>
       </c>
       <c r="CL327" s="1" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58091,10 +58088,10 @@
         <v>99</v>
       </c>
       <c r="K328" s="1" t="s">
+        <v>2730</v>
+      </c>
+      <c r="L328" s="1" t="s">
         <v>2731</v>
-      </c>
-      <c r="L328" s="1" t="s">
-        <v>2732</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>102</v>
@@ -58103,7 +58100,7 @@
         <v>103</v>
       </c>
       <c r="P328" s="1" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="R328" s="1" t="s">
         <v>105</v>
@@ -58118,19 +58115,19 @@
         <v>1543</v>
       </c>
       <c r="X328" s="1" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="Y328" s="1" t="s">
         <v>146</v>
       </c>
       <c r="Z328" s="1" t="s">
+        <v>2734</v>
+      </c>
+      <c r="AB328" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="AB328" s="1" t="s">
+      <c r="AC328" s="1" t="s">
         <v>2736</v>
-      </c>
-      <c r="AC328" s="1" t="s">
-        <v>2737</v>
       </c>
       <c r="AE328" s="1" t="s">
         <v>209</v>
@@ -58160,7 +58157,7 @@
         <v>115</v>
       </c>
       <c r="AP328" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="AQ328" s="1" t="s">
         <v>97</v>
@@ -58181,7 +58178,7 @@
         <v>1554</v>
       </c>
       <c r="CC328" s="1" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="CD328" s="1" t="s">
         <v>159</v>
@@ -58193,19 +58190,19 @@
         <v>21419</v>
       </c>
       <c r="CG328" s="1" t="s">
+        <v>2732</v>
+      </c>
+      <c r="CH328" s="1" t="s">
+        <v>2739</v>
+      </c>
+      <c r="CI328" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="CH328" s="1" t="s">
-        <v>2740</v>
-      </c>
-      <c r="CI328" s="1" t="s">
-        <v>2734</v>
-      </c>
       <c r="CJ328" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL328" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58234,10 +58231,10 @@
         <v>99</v>
       </c>
       <c r="K329" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L329" s="1" t="s">
         <v>2741</v>
-      </c>
-      <c r="L329" s="1" t="s">
-        <v>2742</v>
       </c>
       <c r="M329" s="1" t="s">
         <v>102</v>
@@ -58246,7 +58243,7 @@
         <v>103</v>
       </c>
       <c r="P329" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="R329" s="1" t="s">
         <v>105</v>
@@ -58267,10 +58264,10 @@
         <v>2035</v>
       </c>
       <c r="Z329" s="1" t="s">
+        <v>2743</v>
+      </c>
+      <c r="AC329" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="AC329" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="AE329" s="1" t="s">
         <v>112</v>
@@ -58300,7 +58297,7 @@
         <v>115</v>
       </c>
       <c r="AP329" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="AQ329" s="1" t="s">
         <v>97</v>
@@ -58321,10 +58318,10 @@
         <v>1095</v>
       </c>
       <c r="CC329" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="CD329" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="CE329" s="1" t="s">
         <v>99</v>
@@ -58333,10 +58330,10 @@
         <v>34672</v>
       </c>
       <c r="CG329" s="1" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="CH329" s="1" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="CI329" s="1" t="s">
         <v>368</v>
@@ -58345,7 +58342,7 @@
         <v>102</v>
       </c>
       <c r="CL329" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58523,7 +58520,7 @@
         <v>44344</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="G331" s="1" t="s">
         <v>96</v>
@@ -58532,10 +58529,10 @@
         <v>99</v>
       </c>
       <c r="K331" s="1" t="s">
+        <v>2749</v>
+      </c>
+      <c r="L331" s="1" t="s">
         <v>2750</v>
-      </c>
-      <c r="L331" s="1" t="s">
-        <v>2751</v>
       </c>
       <c r="M331" s="1" t="s">
         <v>102</v>
@@ -58544,7 +58541,7 @@
         <v>103</v>
       </c>
       <c r="P331" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="R331" s="1" t="s">
         <v>105</v>
@@ -58562,13 +58559,13 @@
         <v>108</v>
       </c>
       <c r="Y331" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="Z331" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="Z331" s="1" t="s">
+      <c r="AC331" s="1" t="s">
         <v>2754</v>
-      </c>
-      <c r="AC331" s="1" t="s">
-        <v>2755</v>
       </c>
       <c r="AE331" s="1" t="s">
         <v>130</v>
@@ -58592,7 +58589,7 @@
         <v>44344</v>
       </c>
       <c r="AM331" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="AN331" s="1" t="s">
         <v>115</v>
@@ -58619,10 +58616,10 @@
         <v>117</v>
       </c>
       <c r="CC331" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="CD331" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="CE331" s="1" t="s">
         <v>99</v>
@@ -58631,10 +58628,10 @@
         <v>20511</v>
       </c>
       <c r="CG331" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="CH331" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="CI331" s="1" t="s">
         <v>108</v>
@@ -58672,10 +58669,10 @@
         <v>152</v>
       </c>
       <c r="K332" s="1" t="s">
+        <v>2757</v>
+      </c>
+      <c r="L332" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="L332" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="M332" s="1" t="s">
         <v>102</v>
@@ -58684,7 +58681,7 @@
         <v>103</v>
       </c>
       <c r="P332" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="R332" s="1" t="s">
         <v>143</v>
@@ -58705,13 +58702,13 @@
         <v>380</v>
       </c>
       <c r="Z332" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="AA332" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="AA332" s="1" t="s">
+      <c r="AC332" s="1" t="s">
         <v>2762</v>
-      </c>
-      <c r="AC332" s="1" t="s">
-        <v>2763</v>
       </c>
       <c r="AE332" s="1" t="s">
         <v>112</v>
@@ -58741,7 +58738,7 @@
         <v>115</v>
       </c>
       <c r="AP332" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="AQ332" s="1" t="s">
         <v>97</v>
@@ -58762,10 +58759,10 @@
         <v>2570</v>
       </c>
       <c r="CC332" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="CD332" s="1" t="s">
         <v>2765</v>
-      </c>
-      <c r="CD332" s="1" t="s">
-        <v>2766</v>
       </c>
       <c r="CE332" s="1" t="s">
         <v>152</v>
@@ -58774,10 +58771,10 @@
         <v>31454</v>
       </c>
       <c r="CG332" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="CH332" s="1" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="CI332" s="1" t="s">
         <v>379</v>
@@ -58786,7 +58783,7 @@
         <v>102</v>
       </c>
       <c r="CL332" s="1" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58806,7 +58803,7 @@
         <v>44344</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>96</v>
@@ -58818,7 +58815,7 @@
         <v>1259</v>
       </c>
       <c r="L333" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="M333" s="1" t="s">
         <v>102</v>
@@ -58827,7 +58824,7 @@
         <v>103</v>
       </c>
       <c r="P333" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="R333" s="1" t="s">
         <v>105</v>
@@ -58845,13 +58842,13 @@
         <v>760</v>
       </c>
       <c r="Y333" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Z333" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="Z333" s="1" t="s">
+      <c r="AC333" s="1" t="s">
         <v>2772</v>
-      </c>
-      <c r="AC333" s="1" t="s">
-        <v>2773</v>
       </c>
       <c r="AE333" s="1" t="s">
         <v>130</v>
@@ -58875,13 +58872,13 @@
         <v>44344</v>
       </c>
       <c r="AM333" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="AN333" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP333" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="AQ333" s="1" t="s">
         <v>97</v>
@@ -58914,10 +58911,10 @@
         <v>24198</v>
       </c>
       <c r="CG333" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="CH333" s="1" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="CI333" s="1" t="s">
         <v>760</v>
@@ -58926,7 +58923,7 @@
         <v>102</v>
       </c>
       <c r="CL333" s="1" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -58946,7 +58943,7 @@
         <v>44344</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="G334" s="1" t="s">
         <v>96</v>
@@ -58955,10 +58952,10 @@
         <v>99</v>
       </c>
       <c r="K334" s="1" t="s">
+        <v>2776</v>
+      </c>
+      <c r="L334" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="L334" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="M334" s="1" t="s">
         <v>102</v>
@@ -58967,7 +58964,7 @@
         <v>103</v>
       </c>
       <c r="P334" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="R334" s="1" t="s">
         <v>105</v>
@@ -58982,16 +58979,16 @@
         <v>144</v>
       </c>
       <c r="X334" s="1" t="s">
+        <v>2779</v>
+      </c>
+      <c r="Y334" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="Y334" s="1" t="s">
+      <c r="Z334" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="Z334" s="1" t="s">
+      <c r="AC334" s="1" t="s">
         <v>2782</v>
-      </c>
-      <c r="AC334" s="1" t="s">
-        <v>2783</v>
       </c>
       <c r="AE334" s="1" t="s">
         <v>112</v>
@@ -59015,13 +59012,13 @@
         <v>44344</v>
       </c>
       <c r="AM334" s="1" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="AN334" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP334" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="AQ334" s="1" t="s">
         <v>97</v>
@@ -59042,10 +59039,10 @@
         <v>157</v>
       </c>
       <c r="CC334" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="CD334" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="CD334" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="CE334" s="1" t="s">
         <v>99</v>
@@ -59054,19 +59051,19 @@
         <v>25609</v>
       </c>
       <c r="CG334" s="1" t="s">
+        <v>2778</v>
+      </c>
+      <c r="CH334" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="CI334" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="CH334" s="1" t="s">
-        <v>2787</v>
-      </c>
-      <c r="CI334" s="1" t="s">
-        <v>2780</v>
-      </c>
       <c r="CJ334" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL334" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59086,7 +59083,7 @@
         <v>44344</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>162</v>
@@ -59152,13 +59149,13 @@
         <v>44344</v>
       </c>
       <c r="AM335" s="1" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="AN335" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP335" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="AQ335" s="1" t="s">
         <v>97</v>
@@ -59200,7 +59197,7 @@
         <v>102</v>
       </c>
       <c r="CL335" s="1" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59220,7 +59217,7 @@
         <v>44344</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="G336" s="1" t="s">
         <v>96</v>
@@ -59229,10 +59226,10 @@
         <v>152</v>
       </c>
       <c r="K336" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="L336" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="L336" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="M336" s="1" t="s">
         <v>102</v>
@@ -59241,7 +59238,7 @@
         <v>103</v>
       </c>
       <c r="P336" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="R336" s="1" t="s">
         <v>105</v>
@@ -59259,13 +59256,13 @@
         <v>760</v>
       </c>
       <c r="Y336" s="1" t="s">
+        <v>2770</v>
+      </c>
+      <c r="Z336" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="Z336" s="1" t="s">
-        <v>2772</v>
-      </c>
       <c r="AC336" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="AE336" s="1" t="s">
         <v>130</v>
@@ -59289,13 +59286,13 @@
         <v>44344</v>
       </c>
       <c r="AM336" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="AN336" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP336" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="AQ336" s="1" t="s">
         <v>97</v>
@@ -59316,7 +59313,7 @@
         <v>416</v>
       </c>
       <c r="CC336" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="CD336" s="1" t="s">
         <v>264</v>
@@ -59328,10 +59325,10 @@
         <v>29760</v>
       </c>
       <c r="CG336" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="CH336" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="CI336" s="1" t="s">
         <v>760</v>
@@ -59340,7 +59337,7 @@
         <v>102</v>
       </c>
       <c r="CL336" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59369,10 +59366,10 @@
         <v>99</v>
       </c>
       <c r="K337" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L337" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="L337" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="M337" s="1" t="s">
         <v>102</v>
@@ -59381,7 +59378,7 @@
         <v>103</v>
       </c>
       <c r="P337" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="R337" s="1" t="s">
         <v>105</v>
@@ -59402,13 +59399,13 @@
         <v>146</v>
       </c>
       <c r="Z337" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="AB337" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="AB337" s="1" t="s">
+      <c r="AC337" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="AC337" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="AE337" s="1" t="s">
         <v>130</v>
@@ -59438,7 +59435,7 @@
         <v>115</v>
       </c>
       <c r="AP337" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="AQ337" s="1" t="s">
         <v>97</v>
@@ -59459,10 +59456,10 @@
         <v>416</v>
       </c>
       <c r="CC337" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="CD337" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="CE337" s="1" t="s">
         <v>99</v>
@@ -59471,10 +59468,10 @@
         <v>23587</v>
       </c>
       <c r="CG337" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="CH337" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="CI337" s="1" t="s">
         <v>760</v>
@@ -59483,7 +59480,7 @@
         <v>102</v>
       </c>
       <c r="CL337" s="1" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59503,7 +59500,7 @@
         <v>44347</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>96</v>
@@ -59512,10 +59509,10 @@
         <v>99</v>
       </c>
       <c r="K338" s="1" t="s">
+        <v>2797</v>
+      </c>
+      <c r="L338" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="L338" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="M338" s="1" t="s">
         <v>102</v>
@@ -59524,7 +59521,7 @@
         <v>103</v>
       </c>
       <c r="P338" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="R338" s="1" t="s">
         <v>105</v>
@@ -59545,13 +59542,13 @@
         <v>146</v>
       </c>
       <c r="Z338" s="1" t="s">
+        <v>2800</v>
+      </c>
+      <c r="AB338" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="AB338" s="1" t="s">
+      <c r="AC338" s="1" t="s">
         <v>2802</v>
-      </c>
-      <c r="AC338" s="1" t="s">
-        <v>2803</v>
       </c>
       <c r="AE338" s="1" t="s">
         <v>130</v>
@@ -59575,13 +59572,13 @@
         <v>44347</v>
       </c>
       <c r="AM338" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="AN338" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP338" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="AQ338" s="1" t="s">
         <v>97</v>
@@ -59602,10 +59599,10 @@
         <v>416</v>
       </c>
       <c r="CC338" s="1" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="CD338" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="CE338" s="1" t="s">
         <v>99</v>
@@ -59614,10 +59611,10 @@
         <v>23587</v>
       </c>
       <c r="CG338" s="1" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="CH338" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="CI338" s="1" t="s">
         <v>760</v>
@@ -59626,7 +59623,7 @@
         <v>102</v>
       </c>
       <c r="CL338" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59646,7 +59643,7 @@
         <v>44347</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="G339" s="1" t="s">
         <v>96</v>
@@ -59658,7 +59655,7 @@
         <v>186</v>
       </c>
       <c r="L339" s="1" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="M339" s="1" t="s">
         <v>102</v>
@@ -59667,7 +59664,7 @@
         <v>103</v>
       </c>
       <c r="P339" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="R339" s="1" t="s">
         <v>105</v>
@@ -59685,13 +59682,13 @@
         <v>984</v>
       </c>
       <c r="Y339" s="1" t="s">
+        <v>2811</v>
+      </c>
+      <c r="Z339" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="Z339" s="1" t="s">
+      <c r="AA339" s="1" t="s">
         <v>2813</v>
-      </c>
-      <c r="AA339" s="1" t="s">
-        <v>2814</v>
       </c>
       <c r="AE339" s="1" t="s">
         <v>112</v>
@@ -59715,7 +59712,7 @@
         <v>44347</v>
       </c>
       <c r="AM339" s="1" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="AN339" s="1" t="s">
         <v>115</v>
@@ -59745,7 +59742,7 @@
         <v>186</v>
       </c>
       <c r="CD339" s="1" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="CE339" s="1" t="s">
         <v>99</v>
@@ -59754,10 +59751,10 @@
         <v>22478</v>
       </c>
       <c r="CG339" s="1" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="CH339" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="CI339" s="1" t="s">
         <v>984</v>
@@ -59786,7 +59783,7 @@
         <v>44347</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="G340" s="1" t="s">
         <v>96</v>
@@ -59798,7 +59795,7 @@
         <v>1362</v>
       </c>
       <c r="L340" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="M340" s="1" t="s">
         <v>102</v>
@@ -59807,7 +59804,7 @@
         <v>103</v>
       </c>
       <c r="P340" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="R340" s="1" t="s">
         <v>105</v>
@@ -59825,13 +59822,13 @@
         <v>1347</v>
       </c>
       <c r="Y340" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Z340" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="Z340" s="1" t="s">
+      <c r="AC340" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="AC340" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="AE340" s="1" t="s">
         <v>112</v>
@@ -59855,13 +59852,13 @@
         <v>44347</v>
       </c>
       <c r="AM340" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="AN340" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP340" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="AQ340" s="1" t="s">
         <v>97</v>
@@ -59873,10 +59870,10 @@
         <v>99</v>
       </c>
       <c r="AY340" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AZ340" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="AZ340" s="1" t="s">
-        <v>2825</v>
       </c>
       <c r="BA340" s="1" t="s">
         <v>102</v>
@@ -59885,7 +59882,7 @@
         <v>103</v>
       </c>
       <c r="BD340" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BI340" s="1" t="s">
         <v>177</v>
@@ -59903,7 +59900,7 @@
         <v>1095</v>
       </c>
       <c r="CC340" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="CD340" s="1" t="s">
         <v>1233</v>
@@ -59915,13 +59912,13 @@
         <v>29032</v>
       </c>
       <c r="CG340" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="CJ340" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL340" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -59941,7 +59938,7 @@
         <v>44347</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="G341" s="1" t="s">
         <v>96</v>
@@ -59953,7 +59950,7 @@
         <v>1362</v>
       </c>
       <c r="L341" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="M341" s="1" t="s">
         <v>102</v>
@@ -59962,7 +59959,7 @@
         <v>103</v>
       </c>
       <c r="P341" s="1" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="R341" s="1" t="s">
         <v>105</v>
@@ -59980,13 +59977,13 @@
         <v>1347</v>
       </c>
       <c r="Y341" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="Z341" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="Z341" s="1" t="s">
+      <c r="AC341" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="AC341" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="AE341" s="1" t="s">
         <v>112</v>
@@ -60010,13 +60007,13 @@
         <v>44347</v>
       </c>
       <c r="AM341" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="AN341" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP341" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="AQ341" s="1" t="s">
         <v>97</v>
@@ -60028,10 +60025,10 @@
         <v>99</v>
       </c>
       <c r="AY341" s="1" t="s">
+        <v>2823</v>
+      </c>
+      <c r="AZ341" s="1" t="s">
         <v>2824</v>
-      </c>
-      <c r="AZ341" s="1" t="s">
-        <v>2825</v>
       </c>
       <c r="BA341" s="1" t="s">
         <v>102</v>
@@ -60040,7 +60037,7 @@
         <v>103</v>
       </c>
       <c r="BD341" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="BI341" s="1" t="s">
         <v>177</v>
@@ -60058,7 +60055,7 @@
         <v>1095</v>
       </c>
       <c r="CC341" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="CD341" s="1" t="s">
         <v>1233</v>
@@ -60070,13 +60067,13 @@
         <v>29032</v>
       </c>
       <c r="CG341" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="CJ341" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL341" s="1" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60105,10 +60102,10 @@
         <v>99</v>
       </c>
       <c r="K342" s="1" t="s">
+        <v>2828</v>
+      </c>
+      <c r="L342" s="1" t="s">
         <v>2829</v>
-      </c>
-      <c r="L342" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="M342" s="1" t="s">
         <v>102</v>
@@ -60117,7 +60114,7 @@
         <v>103</v>
       </c>
       <c r="P342" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="R342" s="1" t="s">
         <v>105</v>
@@ -60135,13 +60132,13 @@
         <v>312</v>
       </c>
       <c r="Y342" s="1" t="s">
+        <v>2831</v>
+      </c>
+      <c r="Z342" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="Z342" s="1" t="s">
+      <c r="AB342" s="1" t="s">
         <v>2833</v>
-      </c>
-      <c r="AB342" s="1" t="s">
-        <v>2834</v>
       </c>
       <c r="AE342" s="1" t="s">
         <v>112</v>
@@ -60171,7 +60168,7 @@
         <v>115</v>
       </c>
       <c r="AP342" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="AQ342" s="1" t="s">
         <v>97</v>
@@ -60195,7 +60192,7 @@
         <v>1113</v>
       </c>
       <c r="CD342" s="1" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="CE342" s="1" t="s">
         <v>99</v>
@@ -60204,10 +60201,10 @@
         <v>24142</v>
       </c>
       <c r="CG342" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="CH342" s="1" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="CI342" s="1" t="s">
         <v>312</v>
@@ -60216,7 +60213,7 @@
         <v>102</v>
       </c>
       <c r="CL342" s="1" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60245,10 +60242,10 @@
         <v>99</v>
       </c>
       <c r="K343" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L343" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="L343" s="1" t="s">
-        <v>2839</v>
       </c>
       <c r="M343" s="1" t="s">
         <v>102</v>
@@ -60257,7 +60254,7 @@
         <v>103</v>
       </c>
       <c r="P343" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="R343" s="1" t="s">
         <v>105</v>
@@ -60278,13 +60275,13 @@
         <v>146</v>
       </c>
       <c r="Z343" s="1" t="s">
+        <v>2840</v>
+      </c>
+      <c r="AB343" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="AB343" s="1" t="s">
+      <c r="AC343" s="1" t="s">
         <v>2842</v>
-      </c>
-      <c r="AC343" s="1" t="s">
-        <v>2843</v>
       </c>
       <c r="AE343" s="1" t="s">
         <v>130</v>
@@ -60314,7 +60311,7 @@
         <v>115</v>
       </c>
       <c r="AP343" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="AQ343" s="1" t="s">
         <v>97</v>
@@ -60338,7 +60335,7 @@
         <v>361</v>
       </c>
       <c r="CD343" s="1" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="CE343" s="1" t="s">
         <v>99</v>
@@ -60347,10 +60344,10 @@
         <v>18279</v>
       </c>
       <c r="CG343" s="1" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="CH343" s="1" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="CI343" s="1" t="s">
         <v>760</v>
@@ -60359,7 +60356,7 @@
         <v>102</v>
       </c>
       <c r="CL343" s="1" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60379,7 +60376,7 @@
         <v>44347</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>96</v>
@@ -60451,7 +60448,7 @@
         <v>44347</v>
       </c>
       <c r="AM344" s="1" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="AN344" s="1" t="s">
         <v>115</v>
@@ -60543,10 +60540,10 @@
         <v>162</v>
       </c>
       <c r="K345" s="1" t="s">
+        <v>2847</v>
+      </c>
+      <c r="L345" s="1" t="s">
         <v>2848</v>
-      </c>
-      <c r="L345" s="1" t="s">
-        <v>2849</v>
       </c>
       <c r="M345" s="1" t="s">
         <v>102</v>
@@ -60555,7 +60552,7 @@
         <v>165</v>
       </c>
       <c r="P345" s="1" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="R345" s="1" t="s">
         <v>105</v>
@@ -60573,13 +60570,13 @@
         <v>125</v>
       </c>
       <c r="Y345" s="1" t="s">
+        <v>2850</v>
+      </c>
+      <c r="Z345" s="1" t="s">
         <v>2851</v>
       </c>
-      <c r="Z345" s="1" t="s">
+      <c r="AC345" s="1" t="s">
         <v>2852</v>
-      </c>
-      <c r="AC345" s="1" t="s">
-        <v>2853</v>
       </c>
       <c r="AE345" s="1" t="s">
         <v>112</v>
@@ -60609,7 +60606,7 @@
         <v>115</v>
       </c>
       <c r="AP345" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="AQ345" s="1" t="s">
         <v>97</v>
@@ -60621,10 +60618,10 @@
         <v>99</v>
       </c>
       <c r="AY345" s="1" t="s">
+        <v>2854</v>
+      </c>
+      <c r="AZ345" s="1" t="s">
         <v>2855</v>
-      </c>
-      <c r="AZ345" s="1" t="s">
-        <v>2856</v>
       </c>
       <c r="BA345" s="1" t="s">
         <v>102</v>
@@ -60633,7 +60630,7 @@
         <v>103</v>
       </c>
       <c r="BD345" s="1" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="BF345" s="1" t="s">
         <v>125</v>
@@ -60645,7 +60642,7 @@
         <v>146</v>
       </c>
       <c r="BI345" s="1" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="BJ345" s="1" t="s">
         <v>97</v>
@@ -60660,7 +60657,7 @@
         <v>136</v>
       </c>
       <c r="CC345" s="1" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="CD345" s="1" t="s">
         <v>318</v>
@@ -60672,13 +60669,13 @@
         <v>24836</v>
       </c>
       <c r="CG345" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="CH345" s="1" t="s">
         <v>2860</v>
       </c>
-      <c r="CH345" s="1" t="s">
+      <c r="CI345" s="1" t="s">
         <v>2861</v>
-      </c>
-      <c r="CI345" s="1" t="s">
-        <v>2862</v>
       </c>
       <c r="CJ345" s="1" t="s">
         <v>102</v>
@@ -60687,7 +60684,7 @@
         <v>2208</v>
       </c>
       <c r="CL345" s="1" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60716,10 +60713,10 @@
         <v>99</v>
       </c>
       <c r="K346" s="1" t="s">
+        <v>2862</v>
+      </c>
+      <c r="L346" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="L346" s="1" t="s">
-        <v>2864</v>
       </c>
       <c r="M346" s="1" t="s">
         <v>102</v>
@@ -60728,7 +60725,7 @@
         <v>103</v>
       </c>
       <c r="P346" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="R346" s="1" t="s">
         <v>105</v>
@@ -60749,10 +60746,10 @@
         <v>916</v>
       </c>
       <c r="Z346" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="AC346" s="1" t="s">
         <v>2866</v>
-      </c>
-      <c r="AC346" s="1" t="s">
-        <v>2867</v>
       </c>
       <c r="AE346" s="1" t="s">
         <v>130</v>
@@ -60782,7 +60779,7 @@
         <v>115</v>
       </c>
       <c r="AP346" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="AQ346" s="1" t="s">
         <v>97</v>
@@ -60815,10 +60812,10 @@
         <v>25945</v>
       </c>
       <c r="CG346" s="1" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="CH346" s="1" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="CI346" s="1" t="s">
         <v>915</v>
@@ -60827,7 +60824,7 @@
         <v>102</v>
       </c>
       <c r="CL346" s="1" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -60856,10 +60853,10 @@
         <v>99</v>
       </c>
       <c r="K347" s="1" t="s">
+        <v>2869</v>
+      </c>
+      <c r="L347" s="1" t="s">
         <v>2870</v>
-      </c>
-      <c r="L347" s="1" t="s">
-        <v>2871</v>
       </c>
       <c r="M347" s="1" t="s">
         <v>102</v>
@@ -60868,7 +60865,7 @@
         <v>103</v>
       </c>
       <c r="P347" s="1" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="R347" s="1" t="s">
         <v>105</v>
@@ -60886,13 +60883,13 @@
         <v>224</v>
       </c>
       <c r="Y347" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="Z347" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="Z347" s="1" t="s">
+      <c r="AC347" s="1" t="s">
         <v>2874</v>
-      </c>
-      <c r="AC347" s="1" t="s">
-        <v>2875</v>
       </c>
       <c r="AE347" s="1" t="s">
         <v>112</v>
@@ -60922,7 +60919,7 @@
         <v>115</v>
       </c>
       <c r="AP347" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="AQ347" s="1" t="s">
         <v>97</v>
@@ -60934,10 +60931,10 @@
         <v>99</v>
       </c>
       <c r="AY347" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="AZ347" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="AZ347" s="1" t="s">
-        <v>2878</v>
       </c>
       <c r="BA347" s="1" t="s">
         <v>102</v>
@@ -60946,7 +60943,7 @@
         <v>103</v>
       </c>
       <c r="BD347" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="BF347" s="1" t="s">
         <v>223</v>
@@ -60955,10 +60952,10 @@
         <v>224</v>
       </c>
       <c r="BH347" s="1" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="BI347" s="1" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="BJ347" s="1" t="s">
         <v>97</v>
@@ -60973,10 +60970,10 @@
         <v>230</v>
       </c>
       <c r="CC347" s="1" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="CD347" s="1" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="CE347" s="1" t="s">
         <v>99</v>
@@ -60985,10 +60982,10 @@
         <v>24833</v>
       </c>
       <c r="CG347" s="1" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="CH347" s="1" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="CI347" s="1" t="s">
         <v>224</v>
@@ -60997,7 +60994,7 @@
         <v>102</v>
       </c>
       <c r="CL347" s="1" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61166,10 +61163,10 @@
         <v>99</v>
       </c>
       <c r="K349" s="1" t="s">
+        <v>2882</v>
+      </c>
+      <c r="L349" s="1" t="s">
         <v>2883</v>
-      </c>
-      <c r="L349" s="1" t="s">
-        <v>2884</v>
       </c>
       <c r="M349" s="1" t="s">
         <v>102</v>
@@ -61178,7 +61175,7 @@
         <v>103</v>
       </c>
       <c r="P349" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="R349" s="1" t="s">
         <v>105</v>
@@ -61199,16 +61196,16 @@
         <v>552</v>
       </c>
       <c r="Z349" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="AA349" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="AA349" s="1" t="s">
+      <c r="AB349" s="1" t="s">
         <v>2887</v>
       </c>
-      <c r="AB349" s="1" t="s">
+      <c r="AC349" s="1" t="s">
         <v>2888</v>
-      </c>
-      <c r="AC349" s="1" t="s">
-        <v>2889</v>
       </c>
       <c r="AE349" s="1" t="s">
         <v>130</v>
@@ -61238,7 +61235,7 @@
         <v>115</v>
       </c>
       <c r="AP349" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="AQ349" s="1" t="s">
         <v>97</v>
@@ -61271,10 +61268,10 @@
         <v>27443</v>
       </c>
       <c r="CG349" s="1" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="CH349" s="1" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="CI349" s="1" t="s">
         <v>2016</v>
@@ -61283,7 +61280,7 @@
         <v>102</v>
       </c>
       <c r="CL349" s="1" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61375,7 +61372,7 @@
         <v>115</v>
       </c>
       <c r="AP350" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="AQ350" s="1" t="s">
         <v>97</v>
@@ -61387,10 +61384,10 @@
         <v>152</v>
       </c>
       <c r="AY350" s="1" t="s">
+        <v>2892</v>
+      </c>
+      <c r="AZ350" s="1" t="s">
         <v>2893</v>
-      </c>
-      <c r="AZ350" s="1" t="s">
-        <v>2894</v>
       </c>
       <c r="BA350" s="1" t="s">
         <v>102</v>
@@ -61399,19 +61396,19 @@
         <v>103</v>
       </c>
       <c r="BD350" s="1" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="BF350" s="1" t="s">
         <v>2157</v>
       </c>
       <c r="BG350" s="1" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="BH350" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BI350" s="1" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="BJ350" s="1" t="s">
         <v>97</v>
@@ -61426,10 +61423,10 @@
         <v>449</v>
       </c>
       <c r="CC350" s="1" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="CD350" s="1" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="CE350" s="1" t="s">
         <v>152</v>
@@ -61438,19 +61435,19 @@
         <v>26648</v>
       </c>
       <c r="CG350" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="CH350" s="1" t="s">
+        <v>2898</v>
+      </c>
+      <c r="CI350" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="CH350" s="1" t="s">
-        <v>2899</v>
-      </c>
-      <c r="CI350" s="1" t="s">
-        <v>2896</v>
-      </c>
       <c r="CJ350" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL350" s="1" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61470,7 +61467,7 @@
         <v>44347</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>96</v>
@@ -61482,7 +61479,7 @@
         <v>1272</v>
       </c>
       <c r="L351" s="1" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="M351" s="1" t="s">
         <v>102</v>
@@ -61491,7 +61488,7 @@
         <v>103</v>
       </c>
       <c r="P351" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="R351" s="1" t="s">
         <v>105</v>
@@ -61512,10 +61509,10 @@
         <v>395</v>
       </c>
       <c r="Z351" s="1" t="s">
+        <v>2902</v>
+      </c>
+      <c r="AB351" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="AB351" s="1" t="s">
-        <v>2904</v>
       </c>
       <c r="AE351" s="1" t="s">
         <v>112</v>
@@ -61539,13 +61536,13 @@
         <v>44347</v>
       </c>
       <c r="AM351" s="1" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="AN351" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP351" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="AQ351" s="1" t="s">
         <v>97</v>
@@ -61569,7 +61566,7 @@
         <v>1272</v>
       </c>
       <c r="CD351" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="CE351" s="1" t="s">
         <v>99</v>
@@ -61578,10 +61575,10 @@
         <v>21993</v>
       </c>
       <c r="CG351" s="1" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="CH351" s="1" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="CI351" s="1" t="s">
         <v>214</v>
@@ -61590,7 +61587,7 @@
         <v>102</v>
       </c>
       <c r="CL351" s="1" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -61610,7 +61607,7 @@
         <v>44347</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>96</v>
@@ -61619,10 +61616,10 @@
         <v>99</v>
       </c>
       <c r="K352" s="1" t="s">
+        <v>2907</v>
+      </c>
+      <c r="L352" s="1" t="s">
         <v>2908</v>
-      </c>
-      <c r="L352" s="1" t="s">
-        <v>2909</v>
       </c>
       <c r="M352" s="1" t="s">
         <v>102</v>
@@ -61631,7 +61628,7 @@
         <v>103</v>
       </c>
       <c r="P352" s="1" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="R352" s="1" t="s">
         <v>105</v>
@@ -61646,13 +61643,13 @@
         <v>168</v>
       </c>
       <c r="X352" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="Z352" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="Z352" s="1" t="s">
+      <c r="AB352" s="1" t="s">
         <v>2912</v>
-      </c>
-      <c r="AB352" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="AE352" s="1" t="s">
         <v>112</v>
@@ -61676,13 +61673,13 @@
         <v>44347</v>
       </c>
       <c r="AM352" s="1" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="AN352" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AP352" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="AQ352" s="1" t="s">
         <v>97</v>
@@ -61697,7 +61694,7 @@
         <v>1069</v>
       </c>
       <c r="AZ352" s="1" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="BA352" s="1" t="s">
         <v>102</v>
@@ -61706,19 +61703,19 @@
         <v>103</v>
       </c>
       <c r="BD352" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="BF352" s="1" t="s">
         <v>168</v>
       </c>
       <c r="BG352" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BH352" s="1" t="s">
+        <v>2916</v>
+      </c>
+      <c r="BI352" s="1" t="s">
         <v>2917</v>
-      </c>
-      <c r="BI352" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="BJ352" s="1" t="s">
         <v>97</v>
@@ -61745,19 +61742,19 @@
         <v>31151</v>
       </c>
       <c r="CG352" s="1" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="CH352" s="1" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="CI352" s="1" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="CJ352" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CL352" s="1" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
     </row>
   </sheetData>
